--- a/examples/experiment1/mnist_resnet_False.xlsx
+++ b/examples/experiment1/mnist_resnet_False.xlsx
@@ -11,6 +11,11 @@
     <sheet name="percentage_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="percentage_0.75" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="percentage_1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="percentage_0.01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="percentage_0.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percentage_0.1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="percentage_0.15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="percentage_0.2" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6484,4 +6489,7584 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1328709125518799</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09863333333333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.312565386295319</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.308385666211446</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.309059000015259</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1711938381195068</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2047333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2052</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.296741008758545</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.311293745040893</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.31044065952301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1717128753662109</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1679333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.255447268486023</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.264866515000661</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.263373184204101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1688504219055176</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2811666666666667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2864</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.213283777236938</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.214003853003184</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.21370165348053</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1757962703704834</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2049833333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2104</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.169717073440552</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.174461758136749</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.172609615325928</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2083640098571777</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3418</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.052336156368256</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.064631330966949</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.063291454315185</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.179257869720459</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2353333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.103474497795105</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.092110085487366</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.085273659229279</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1747541427612305</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3035</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.942422121763229</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.971460131804148</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.964779949188233</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.187814474105835</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3207</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3179</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.964398205280304</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.970827468236287</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.967814481258392</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1729309558868408</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.25855</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.892560303211212</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.940000090996424</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.942888975143433</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.181952953338623</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5315333333333333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.686726182699203</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.717433353265126</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.709899413585663</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1932632923126221</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4392166666666666</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4429</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.680263668298721</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.705576608578364</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.690795767307282</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.187840461730957</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4306666666666666</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.543466538190842</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.607566907008489</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.604613471031189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1669199466705322</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6253</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6213</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.35967230796814</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.379676163196564</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.369591736793518</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1800239086151123</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4718</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4654</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.456809759140015</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.487065905332565</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.475107324123383</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1670098304748535</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4129833333333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4127</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.416473686695099</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.529842487970988</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.528097951412201</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1794037818908691</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7415</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7372</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.013325333595276</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.043545021613439</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.040698438882828</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1722590923309326</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6345499999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6316000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.011713564395905</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.086939684549967</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.083838593959808</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1684482097625732</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7545166666666666</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7514</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8223723173141479</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8476220538218816</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8455440402030945</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1682305335998535</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5146833333333334</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5169</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.474039793014526</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.424782743056615</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.420726454257965</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1725935935974121</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4876</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.345347166061401</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.414285737276077</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.403881657123566</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1735591888427734</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5634166666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5568</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.317302137613297</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.341866548856099</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.33835244178772</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.279994010925293</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6276</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.080156549811363</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.111880612373352</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.097874110937119</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1871106624603271</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.77715</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7799</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9178650677204132</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9109981775283813</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9038476586341858</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1854360103607178</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7052</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7119</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.838088721036911</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9010379274686178</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8846227884292602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1865372657775879</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7706499999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7726</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6950909048318863</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7631911526123683</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7495384931564331</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1843166351318359</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8297166666666667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8338</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.580000028014183</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6270371357599894</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6115432262420655</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2142565250396729</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8119666666666666</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8178</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5162663534283638</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5911319340268771</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5727274239063262</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1744058132171631</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8479666666666666</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8601</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4326019287109375</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5276998286445935</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5042958945035935</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1806936264038086</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.81335</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8231000000000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5696853548288345</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6364646638433139</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6062288403511047</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1788623332977295</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.80235</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8111</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5639767199754715</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6229524220029513</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5957047730684281</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1767165660858154</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7284166666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7259</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.7376860529184341</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8111310064792633</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7877796053886413</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1791810989379883</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8455</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8524</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.4127813056111336</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5128307476639747</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.4969787895679474</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1857550144195557</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8075</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8201000000000001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.4848566651344299</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5999853005011876</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5765841841697693</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1858484745025635</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.86365</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3685088828206062</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.445847103993098</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.4184323698282242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1782181262969971</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8369166666666666</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8471</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3727287314832211</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.553460755944252</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.5302138954401017</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1911416053771973</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8960833333333333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9035</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2400057092308998</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.3457573009033998</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3275844007730484</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1730790138244629</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8624000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8653999999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3533760458230972</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.4218996951977412</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.4069460183382034</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.183659553527832</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9073</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9156</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2008793726563454</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.310918187101682</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.295357896387577</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1709892749786377</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.91455</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2022288516163826</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.2873301036655903</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.2713257282972336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1805012226104736</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9182</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9251</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1416848655790091</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.2792050992449125</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.2662332832813263</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1781272888183594</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8634833333333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8698</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.2303330190479755</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.4333819925785065</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.4228092044591903</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1643903255462646</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8645666666666667</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8746</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.220300018787384</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4397681042551994</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.426679340004921</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1883077621459961</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9089166666666667</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9143</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.179260291159153</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.3022730372846126</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.2885483041405678</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1755106449127197</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8909666666666667</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8987000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1945385783910751</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.3692303265134493</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.3503392934799194</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1874408721923828</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9003833333333333</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9054</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1781462654471397</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.324191915243864</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3077110663056374</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1827902793884277</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9105166666666666</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9155</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1485512442886829</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3101336205999056</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.2917973130941391</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1832537651062012</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9161</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9204</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1635693646967411</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.289349793146054</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.2683213233947754</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1801753044128418</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9058</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9098000000000001</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.148967320099473</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3332420813540617</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.3180630475282669</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1890521049499512</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9109</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9197</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1273257452994585</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.2968366992970308</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.2778305903077126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1489648818969727</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1123666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1135</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.300284955812537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.300828858216604</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.299199748039245</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.181734561920166</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2123833333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2126</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.152728650880896</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.13407263358434</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.131894111633301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1937286853790283</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4189</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.936147674270298</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.897532935937246</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.888115274906158</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1755850315093994</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4141833333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.794383339259936</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.713679736852646</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.695455980300903</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1939208507537842</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6797666666666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.070844194163447</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.020971539616585</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.000503385066986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2400908470153809</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.80625</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6304336267968883</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6280889138579369</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6131254464387894</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1848161220550537</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8501166666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8562</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5190787717052128</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5403404588500659</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.522044587135315</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1639273166656494</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.88115</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8908</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3875582244085229</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3913136338194211</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3674174159765243</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2047414779663086</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8707666666666667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8746</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3901730957238571</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4382480526963869</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4059421628713608</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1697225570678711</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9389166666666666</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9428</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1763536301643952</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2091222405433655</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1904296070337295</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1800587177276611</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9386333333333333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9409</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.183550175441348</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2039821385095517</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1957242906093598</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.182297945022583</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9201166666666667</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9252</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2173527968318566</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2787687751154105</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2542288914322853</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1615850925445557</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9137833333333333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9174</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2776642759209094</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2833996611336867</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2784487962722778</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1665761470794678</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9557166666666667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9556</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1329156127960786</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1546573791652918</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1492344900965691</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1703612804412842</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9579833333333333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9613</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.09972537227946779</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1435127442081769</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1316088151186705</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1760778427124023</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9628</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9678</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.09035576296889264</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1315312110508482</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.110382891818881</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1850631237030029</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9680166666666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.07623895217219125</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1104535343125463</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.09758911207318306</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1839027404785156</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9540166666666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9547</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1254453939264235</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.157702998444438</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1537003017961979</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1786422729492188</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9643666666666667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.08398633531254271</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1212246580670277</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1066443264484405</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.167747974395752</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9628</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9651</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.08322237351018449</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1287816893930236</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1105974413454533</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1718523502349854</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9699833333333333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9712</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05227998619818169</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1015798735742768</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.09420580677688122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1774389743804932</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9736</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9767</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04385562208683595</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.09250688593213757</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.07839682344347239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1765182018280029</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9743000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9752999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.04454385877951332</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.09277953223014872</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.08045893609523773</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2078132629394531</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9662333333333334</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9676</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.07375922232218411</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1198652447511752</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1033741913735867</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1819751262664795</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9707</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9759</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.05122110879291659</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1032912339394291</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.08450463488698005</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.169736385345459</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.97075</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9706</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.05435077647638062</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1071132821341356</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.09395905174314975</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1831398010253906</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9703000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9705</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05069836480138094</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1057827499384681</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.09955675117671489</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1811957359313965</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9693333333333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.05681271130300086</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1173391262069345</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.09586961772292853</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1957154273986816</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9754833333333334</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9781</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03063956328222285</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.09105239178364476</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.07834884114563465</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1776869297027588</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9744333333333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03579135599505642</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.08731487868353724</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.08786183297634124</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1690206527709961</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9729833333333333</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03046903149832202</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.09167477724452813</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.08127158153802157</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1681673526763916</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9786833333333333</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9824000000000001</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0252677157683217</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.07931568765391907</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.06387757007032632</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.190171480178833</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9755</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02556220947197922</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.08995226801683505</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.07791101392358542</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1997396945953369</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9762999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02963385761351041</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.08564458396285772</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.07543286625295878</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1746504306793213</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9780166666666666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9802999999999999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02493738358759362</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0838750069650511</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.06763078570365906</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1843883991241455</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9685833333333334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.05083459433492111</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1193598141272863</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.08990692254155874</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1732394695281982</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9705333333333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9711</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.04204202111324538</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.1043419611640275</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1022275041788816</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1728711128234863</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9648</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9657</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.06705987121423949</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.1260993254060546</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1260352399200201</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.181441068649292</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9780666666666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9802999999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.02403863860577669</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0854403622293224</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.07376549541950225</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.2236285209655762</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9697833333333333</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04326054563178965</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.1180325471485655</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.09919871762394905</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1773643493652344</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.97925</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9785</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02421507087495664</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.07817254445205132</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.07708064429461955</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1699140071868896</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9803500000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01839896354257413</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.07248309343898048</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0649796349927783</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1708590984344482</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9805</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9826</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01923476385317095</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.07314092249143869</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.06307062748819589</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1667547225952148</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9771666666666666</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9791</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0151249453648115</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.09472233686440935</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.07812581360340118</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1765706539154053</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9805</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.009549322781031546</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.07577754476418098</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.07173570189625025</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1677312850952148</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9740166666666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.02563074733252111</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.09436217024922371</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.08807998709380627</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1722166538238525</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9750166666666666</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9799</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02172887823341981</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.103044517353798</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.07810872662812471</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1980054378509521</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9763833333333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9764</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02688219183651002</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.09187142954518397</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.08326418474316596</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1733145713806152</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9749</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9765</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.02638369584051163</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.1047750261922677</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.08859390001744032</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1792151927947998</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9748333333333333</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9761</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.02658290444346873</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.1011869435509046</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.08491961974650622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.129547119140625</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1129166666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1112</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.305378825768181</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.306942848364512</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.305937957763672</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1739811897277832</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1985666666666667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.276595908662547</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.270179446538289</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.270688796043396</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2031235694885254</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2339</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.96815601379975</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.94635981520017</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.941560423374176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1754152774810791</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6144833333333334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6153</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.189408076846081</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.117334908246994</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.102113890647888</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1864800453186035</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8162166666666667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8208</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6746055302412614</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6285832206408183</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.607596579194069</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2080345153808594</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8319166666666666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5232521360335143</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5217813680569331</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5012157678604126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1703622341156006</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9192</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.299390509724617</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2999623330930869</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2802613765001297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1756043434143066</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9304166666666667</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9366</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2250657556173594</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2316519368439913</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2209138259291649</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1769511699676514</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9397666666666666</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9417</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2166631135927594</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2048190408696731</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2015330813825131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1914587020874023</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9435666666666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9435</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1838406184283288</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.181622401997447</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1738560311496258</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2379660606384277</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9538833333333333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9606</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1234030193932678</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1561761946727832</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1351967670023441</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1806604862213135</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9581</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1335799645470536</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1395184011509021</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1370778504759073</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1647186279296875</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.96005</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9621</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1224118650526456</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1347955711806814</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1211592726409435</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1894910335540771</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9766833333333333</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9772999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.06189838685500233</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0765915898916622</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.07436830997467041</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1925430297851562</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9731</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9754</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0711244361313141</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08736773431301117</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.07815772015601397</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1837625503540039</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9779666666666667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9788</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05209651459818301</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0731447184458375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.07218141257762908</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1772606372833252</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9634666666666667</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9628</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.09296555602518113</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1243103491142392</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1227489404380322</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2137453556060791</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9756333333333334</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9762</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.06291213538497686</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.08322576166441044</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.08222262989729642</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2590782642364502</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9790333333333333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9804</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.04626118671149015</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.06823479604596892</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.06723707579076291</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1756086349487305</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.96435</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9701</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0919063420885283</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1255711612602075</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1103699807077646</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1811192035675049</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9767</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05183412409994913</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.07809537223850688</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.08141000531613826</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1861891746520996</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9848166666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9845</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02575765687810338</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.05213628448545933</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.05349881518632173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1838757991790771</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.98215</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9817</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03141544286526092</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.06066055068125328</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.06228370536118746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1790320873260498</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9824000000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03530945350496989</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.06246118272344271</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06258867215365171</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1889119148254395</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9591333333333333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.09881314845836681</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1373756730929017</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1441838592290878</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1786723136901855</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9858833333333333</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9864000000000001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0217734290054068</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04969422211870551</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.04688760479912162</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1772394180297852</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9845166666666667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9839</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02428904180819897</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05559798044462998</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.054821259342134</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1746761798858643</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9856</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9862</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01727641563680347</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05125624838595589</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.04970769789069891</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1786201000213623</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9850166666666667</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9863</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01857679955782774</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.05174870379269123</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04540347438305616</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.19374680519104</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.98255</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9845</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.02669477137817961</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0625986351321141</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.05236042030155659</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1873090267181396</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9859833333333333</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9896</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02059268694796154</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.04869887459402283</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04154618047177792</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1936533451080322</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9854166666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9861</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01619827763541885</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.05262925159962227</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0480025433935225</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2192397117614746</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9828166666666667</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9826</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02654431317932904</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.06127263793411354</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.05822544302791357</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1734304428100586</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.98085</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9833</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03341321533788805</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.07599666931976874</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.05893359147012234</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.179680347442627</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01248726009836663</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0480509374368315</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.04790602661669254</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1920969486236572</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.98585</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01508293647835355</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.05091003216803074</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.05107884723693133</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1784918308258057</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9863166666666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9867</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.011330251209944</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.04979163353176166</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.05055420119315386</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1798999309539795</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9839166666666667</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9846</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02085094750636136</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.05967231402173638</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.05382933393120766</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1781148910522461</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9836</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9849</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01879183661050933</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.05990079031325877</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.05463596116751433</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1725757122039795</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9869833333333333</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01065113126684952</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.04896918898448348</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.04427715139463544</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.2139952182769775</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9855166666666667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9844000000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01508624496889989</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0541831685967433</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.06035545691847801</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2735157012939453</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9877166666666667</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.007382520592174209</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.04680962254060432</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.04203598201274872</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1631710529327393</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9862</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01573096345806413</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.05720641126390547</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0527917979285121</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1733188629150391</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9868166666666667</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9876</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.008145587268265208</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.05223581324098632</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.04589968957006931</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.2121708393096924</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9773500000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03090198297539483</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.08241447173058987</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.08108566626906395</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1855885982513428</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9864000000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9853</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0115594747223203</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0524180541241852</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.05263785719871521</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1663308143615723</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9881166666666666</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9881</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.006223237946751001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.04483934708793337</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.04656641921028495</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1779336929321289</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9893999999999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9906</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.003675383290417654</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.04160359054609822</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.03800346413627267</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1639947891235352</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9879833333333333</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.006158759838992568</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.047206079911363</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.04544322015717626</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2301380634307861</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9875833333333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9879</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.005849225690168248</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.04794672354667758</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.04396542981266975</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1429650783538818</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09863333333333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.317886594363621</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.318485991160075</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.321321749687195</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1797678470611572</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5277333333333334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5339</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.430466708115169</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.355191121498744</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.337653422355652</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1827363967895508</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8658333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8716</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.469620766384261</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4480511774619421</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4279534786939621</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1883885860443115</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.94575</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9469</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1981176544513021</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1908255974451701</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1823136046528816</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.181204080581665</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9661999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1169256835643734</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1192627479632695</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.115085206925869</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1726241111755371</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.97565</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.08351977374404669</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.08276685811579228</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07886548526585102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1678371429443359</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9754333333333334</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9764</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.07636617669569594</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.08202600001047054</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.07504765614867211</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.209437370300293</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.98155</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.05372945964336395</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.06153038743262489</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.05307688303291798</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1788334846496582</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9600833333333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1194129504263401</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1339354125161966</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1395703863352537</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1577017307281494</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9824166666666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04543632378003427</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.06117772391686837</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05682603176683187</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.160001277923584</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9777666666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9779</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.06110012254544667</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07977095258732637</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.07844632957130671</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1579310894012451</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9854333333333334</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03277792496207569</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.05078967325389385</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0400595348328352</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1667947769165039</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9843666666666666</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9866</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04273731524923018</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.05619311559324463</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.04337867982685566</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.172076940536499</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.98245</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04277834054747862</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06156088601176937</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.05551188681274653</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1995184421539307</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.98695</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9853</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0247008459609268</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04649477979789177</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.04665672359988093</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1703057289123535</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9748833333333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.06390343378963215</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.08541882404436668</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0827137790620327</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1633036136627197</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9835166666666667</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9858</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03796751072098102</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.05844499922047059</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04650305863469839</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2387382984161377</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9877833333333333</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9893999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02408883172819125</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.04426572610003253</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03501486005261541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1725568771362305</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9852</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9876</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02737924110343946</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.05320275705307722</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04372551441192627</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1612246036529541</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9872333333333333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02187173883098045</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.04691928264995416</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04552797917276621</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1640079021453857</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9845166666666667</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9836</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03275007135900004</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.05315460426112016</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.05196465393528342</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1679534912109375</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9728</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.07859241331794432</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1152825657278299</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0978521678596735</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2722911834716797</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9853666666666666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9856</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02283807758108846</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05041956085090836</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.04397985637187958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1784276962280273</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9876666666666667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9882</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02075149552796834</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.04438452218504001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03827510653063655</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1704947948455811</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9904166666666666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01153911481212292</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0354406519792974</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03596853339113295</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1761424541473389</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9877333333333334</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9867</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0178605111482154</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04382390934042633</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.04329867102205753</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1814272403717041</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9785333333333334</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9761</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05202794082994972</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.08168190969154239</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.095380999147892</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2159221172332764</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.98865</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01589529304931472</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.04297172151661167</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0361608779989183</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1724085807800293</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01068724825911756</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.03855590909564247</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04073200426064431</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.187593936920166</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9902</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9909</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01272279528867719</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03872936248468856</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0373681959696114</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1920223236083984</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9891166666666666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01011447716071936</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03991560799768194</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.03095656149089336</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1814773082733154</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9895166666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01472707539464214</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.03958178979034225</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.03858499280177057</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2346863746643066</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9917</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.007212884590262547</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03413422325781236</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.02801942275837064</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1775081157684326</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9882666666666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9857</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01725129090981292</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.04412556351162493</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.05114648137241602</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1724362373352051</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9897833333333333</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01080528203996697</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.03814080546144396</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.03865132427308708</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1776797771453857</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9897166666666667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01640529677804027</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.04004629879879455</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.03411590550094843</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.177654504776001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.99005</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.008328182124283297</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03999519190983847</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.03673834800720215</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2955436706542969</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9884500000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.009623468173335174</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.04329918574076146</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.04130471274256706</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1666169166564941</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9893833333333333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01306593657687439</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.04129925455587605</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.03915082952007651</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1710536479949951</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9893166666666666</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9889</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.009540302432807429</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.04154309950924168</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.04126053173094988</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1652567386627197</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.99065</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9915</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.009303978139567855</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0365462120079125</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.03087685573846102</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1791927814483643</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9900333333333333</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9889</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.007110971137132895</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.03961549977927158</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.04018413769081235</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.19936203956604</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9879</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9893999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0168272412506797</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04797130092047155</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.03938343385234475</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1772780418395996</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.98715</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01620921078636976</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0527515898225829</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.04511387599632144</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1666326522827148</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9888166666666667</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01032621322914825</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.04388348717087259</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.04286036631092429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1613142490386963</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9909</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.006396667353692464</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.03467520413105376</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.03169398196041584</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1693317890167236</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9911833333333333</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.005122459329348723</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.036235831391726</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.03141099447384477</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1822497844696045</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9893333333333333</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.009697283400289183</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.04284093865038206</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.04463214934803546</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1869766712188721</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9911666666666666</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.004329890901239456</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.03613030783696256</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.03404213720932603</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1637048721313477</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9904166666666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9921</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.007342014227262033</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.04112247975814777</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03164963694289327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1539640426635742</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1179833333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1185</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.32682841567583</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.327756265799204</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.325035095214844</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2221465110778809</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.841326008560837</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.777874137957891</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.762711298465729</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1762619018554688</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9186666666666666</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9228</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3253038091364727</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3040911664565404</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2840044602751732</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1623849868774414</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9599833333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9646</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1534449087195499</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1410160169005394</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1237691007554531</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.184359073638916</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9711666666666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9741</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1041963910183279</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1018205848832925</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09288327060639859</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2333691120147705</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9683166666666667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9695</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.108770699590765</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1121209279323618</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1045516602694988</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1816737651824951</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9740166666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.08584449264991989</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.08632035305102666</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.07472128979861736</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.195059061050415</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9821166666666666</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.05557529564185809</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.06102768583223224</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.04991679564118386</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1667804718017578</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9804333333333334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9819</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.06240508751442996</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06717886837820213</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.05646208971738816</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.239797830581665</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9798</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9797</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05836755810405619</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.06925090523436665</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.06924450099468231</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1779260635375977</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.98695</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9869</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02949003208308451</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.04569018601129452</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.04384084139019251</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1871097087860107</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9799</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.06197607041566923</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.07707549314945936</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.06921576373279095</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1702463626861572</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9825666666666667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9833</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04662588126556848</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0611001666324834</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.05379650723189115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1602463722229004</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9854000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04532900890235298</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.05151380135988196</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.04484136826358735</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1926298141479492</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9874000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9863</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.028825579852026</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04433367828217646</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0444864708930254</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1806964874267578</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9833666666666666</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9858</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04086860993336285</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.06015736820797125</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0523567920550704</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1634190082550049</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9886166666666667</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.022721541409571</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04053562498496224</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.03985894080251455</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1729657649993896</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.98975</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9923</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01917500295100473</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03563614122880002</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03011883795261383</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1688790321350098</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9829333333333333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.04153852859732284</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.05925933209558328</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.06284421905875207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1752502918243408</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9870666666666666</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0264285053627225</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.04922428575033943</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04804025208577514</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1734511852264404</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9872166666666666</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02692978782078592</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.04700246945333977</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.04259354430250824</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1662092208862305</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9889166666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9882</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01938353753548556</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03854352285464605</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0401833706535399</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1784610748291016</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9900166666666667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9902</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01627047743362885</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.03499809855905672</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.03450586777180433</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1791849136352539</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9898</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0141576409642835</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03615760287890832</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03170592128299177</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1845471858978271</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9907666666666667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9908</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0132477299675786</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.03441241091350093</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03096517170779407</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1773090362548828</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9912666666666666</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9891</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01021670326916</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.03263223730415727</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0356585361994803</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1796500682830811</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01266273961061992</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.03420018608060976</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0340406924020499</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1773662567138672</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9904166666666666</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01096912166879823</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.03422419429989532</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03607704117894173</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2243239879608154</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9888166666666667</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0199012371519911</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.04306283295930673</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04044901195447892</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1691350936889648</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9886333333333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9873</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01525401137518867</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.04022453518118709</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.04396751022431999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1729412078857422</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9891333333333333</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9883</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01329510420390595</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.04119378311249117</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04332067002542317</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1766262054443359</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.99135</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9923999999999999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.00916323879726171</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.03155514250199</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0281707487301901</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2540993690490723</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9912833333333333</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9917</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.007954601767367774</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03351372689940035</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03186384974978864</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1676285266876221</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9885833333333334</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9879</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01764007580969783</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.04290003408677876</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.04301759479567409</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1563036441802979</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.99065</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.009791878941443859</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.03566589249918858</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.03614344457164407</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1529915332794189</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9897</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01039178413401548</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.04131537455056484</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.03902417581994087</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.2816660404205322</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9903333333333333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9908</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01228256002713185</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0379171690903604</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.03713818178512156</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1680150032043457</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9916333333333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.007773335622523421</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.03202323945006356</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.03527481781784445</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1565513610839844</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9916</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9902</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.006069052601746353</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.03258127171914869</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.03602332472801208</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.159153938293457</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9901333333333333</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9902</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01097751050087203</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03787066266328717</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.03834824776276946</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.2610888481140137</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.98725</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9857</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01396780102313446</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.04776918127511939</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.05145186157897115</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1720683574676514</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9907</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01078001195777668</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.03772979911494379</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.03632745363283903</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1773982048034668</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9908833333333333</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9917</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.007900131422267746</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.03682266230462119</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.03490696586668492</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1579515933990479</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9906</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.009272655803254575</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.04066320404138726</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.03949763779528439</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1686470508575439</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.99005</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01138550908209616</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.04009153734465751</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.03833435163833201</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1712138652801514</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9901</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9902</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.009225992514671738</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.04048968815089514</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.03834643550217152</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1497254371643066</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.99075</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9892</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.008223882140291313</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.03586386926278162</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.03950240300036967</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1592724323272705</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9908666666666667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9883</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.006954182279847001</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.03733259565196932</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.04479526970535517</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1685788631439209</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9911833333333333</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.007943938696889648</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.03423451929120347</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.03429093318991363</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1852824687957764</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9918666666666667</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9908</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.004671420960534384</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.03462709825641165</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0375274954829365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>